--- a/qpsk_600_a.xlsx
+++ b/qpsk_600_a.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09C46F-2229-314B-A5E5-D32D7329E684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="16275" windowHeight="10560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qpsk_600_a" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="2" r:id="rId2"/>
+    <sheet name="p25" sheetId="3" r:id="rId3"/>
+    <sheet name="m25" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="18">
   <si>
     <t>loop filter i</t>
   </si>
@@ -24,12 +33,57 @@
   <si>
     <t xml:space="preserve"> decoded packets</t>
   </si>
+  <si>
+    <t>3e-05</t>
+  </si>
+  <si>
+    <t>3.1e-05</t>
+  </si>
+  <si>
+    <t>3.2e-05</t>
+  </si>
+  <si>
+    <t>3.2999999999999996e-05</t>
+  </si>
+  <si>
+    <t>3.399999999999999e-05</t>
+  </si>
+  <si>
+    <t>3.499999999999999e-05</t>
+  </si>
+  <si>
+    <t>3.599999999999999e-05</t>
+  </si>
+  <si>
+    <t>3.6999999999999985e-05</t>
+  </si>
+  <si>
+    <t>3.799999999999998e-05</t>
+  </si>
+  <si>
+    <t>3.899999999999998e-05</t>
+  </si>
+  <si>
+    <t>3.9999999999999976e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.022000000000000002</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>m25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +215,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,9 +576,30 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -557,13 +647,32 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -578,6 +687,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -664,7 +774,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D661-E34C-9A08-6EF00131A784}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="130056960"/>
         <c:axId val="130083072"/>
       </c:scatterChart>
@@ -673,8 +797,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="130083072"/>
         <c:crosses val="autoZero"/>
@@ -685,9 +812,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="130056960"/>
         <c:crosses val="autoZero"/>
@@ -696,9 +826,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -709,13 +841,25 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1612,7 +1756,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1968-BF4E-BE92-9105F204037F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="60745216"/>
         <c:axId val="60743680"/>
       </c:scatterChart>
@@ -1621,8 +1779,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="60743680"/>
         <c:crosses val="autoZero"/>
@@ -1633,9 +1794,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="60745216"/>
         <c:crosses val="autoZero"/>
@@ -1644,9 +1808,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1673,7 +1839,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1703,7 +1875,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1722,9 +1900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1762,7 +1940,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1796,6 +1974,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1830,9 +2009,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2005,21 +2185,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -2041,7 +2221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -2052,7 +2232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -2063,7 +2243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -2074,7 +2254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -2085,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -2096,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -2107,7 +2287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -2118,7 +2298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -2129,7 +2309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -2140,7 +2320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -2151,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -2162,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2.3E-5</v>
       </c>
@@ -2173,7 +2353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -2184,7 +2364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -2195,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -2206,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2.9E-5</v>
       </c>
@@ -2217,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -2228,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -2239,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -2250,7 +2430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -2261,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -2272,7 +2452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -2283,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -2294,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -2305,7 +2485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1.8E-5</v>
       </c>
@@ -2316,7 +2496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -2327,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -2338,7 +2518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -2349,7 +2529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -2360,7 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2.3E-5</v>
       </c>
@@ -2371,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -2382,7 +2562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -2393,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -2404,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -2415,7 +2595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2.8E-5</v>
       </c>
@@ -2426,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -2437,7 +2617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -2448,7 +2628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -2459,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -2470,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -2481,7 +2661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -2492,7 +2672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -2503,7 +2683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1.8E-5</v>
       </c>
@@ -2514,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -2525,7 +2705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -2536,7 +2716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -2547,7 +2727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -2558,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2.3E-5</v>
       </c>
@@ -2569,7 +2749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -2580,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -2591,7 +2771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -2602,7 +2782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -2613,7 +2793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -2624,7 +2804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>3.4E-5</v>
       </c>
@@ -2635,7 +2815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -2646,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -2657,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -2668,7 +2848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -2679,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -2690,7 +2870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -2701,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1.8E-5</v>
       </c>
@@ -2712,7 +2892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -2723,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -2734,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -2745,7 +2925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -2756,7 +2936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -2767,7 +2947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -2778,7 +2958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2.8E-5</v>
       </c>
@@ -2789,7 +2969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2.9E-5</v>
       </c>
@@ -2800,7 +2980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -2811,7 +2991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -2822,7 +3002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -2833,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>3.4E-5</v>
       </c>
@@ -2844,7 +3024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -2855,7 +3035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -2866,7 +3046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -2877,7 +3057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -2888,7 +3068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -2899,7 +3079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -2910,7 +3090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -2921,7 +3101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2.3E-5</v>
       </c>
@@ -2932,7 +3112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -2943,7 +3123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -2954,7 +3134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -2965,7 +3145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -2976,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2.8E-5</v>
       </c>
@@ -2987,7 +3167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2.9E-5</v>
       </c>
@@ -2998,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -3009,7 +3189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -3020,7 +3200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -3031,7 +3211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3042,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -3053,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -3064,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -3075,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -3086,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1.8E-5</v>
       </c>
@@ -3097,7 +3277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -3108,7 +3288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -3119,7 +3299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -3130,7 +3310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -3141,7 +3321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2.3E-5</v>
       </c>
@@ -3152,7 +3332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -3163,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -3174,7 +3354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -3185,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -3196,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>2.8E-5</v>
       </c>
@@ -3207,7 +3387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>2.9E-5</v>
       </c>
@@ -3218,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -3229,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -3240,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -3251,7 +3431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>3.4E-5</v>
       </c>
@@ -3262,7 +3442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3273,7 +3453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -3284,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -3295,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -3306,7 +3486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -3317,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -3328,7 +3508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1.8E-5</v>
       </c>
@@ -3339,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -3350,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -3361,7 +3541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -3372,7 +3552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -3383,7 +3563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>2.3E-5</v>
       </c>
@@ -3394,7 +3574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>2.9E-5</v>
       </c>
@@ -3405,7 +3585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -3416,7 +3596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>3.4E-5</v>
       </c>
@@ -3427,7 +3607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3438,7 +3618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -3449,7 +3629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -3460,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -3471,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -3482,7 +3662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1.8E-5</v>
       </c>
@@ -3493,7 +3673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -3504,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -3515,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -3526,7 +3706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2.3E-5</v>
       </c>
@@ -3537,7 +3717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -3548,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -3559,7 +3739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -3570,7 +3750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3581,7 +3761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -3592,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -3603,7 +3783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1.8E-5</v>
       </c>
@@ -3614,7 +3794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -3625,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>2.3E-5</v>
       </c>
@@ -3636,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>2.8E-5</v>
       </c>
@@ -3647,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -3658,7 +3838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -3669,7 +3849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3680,7 +3860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -3691,7 +3871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -3702,7 +3882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -3713,7 +3893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -3724,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -3735,7 +3915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1.8E-5</v>
       </c>
@@ -3746,7 +3926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -3757,7 +3937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -3768,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -3779,7 +3959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>2.8E-5</v>
       </c>
@@ -3790,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -3801,7 +3981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>3.4E-5</v>
       </c>
@@ -3812,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3823,7 +4003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -3834,7 +4014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -3845,7 +4025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -3856,7 +4036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>2.9E-5</v>
       </c>
@@ -3867,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -3878,7 +4058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -3889,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>3.4E-5</v>
       </c>
@@ -3900,7 +4080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
@@ -3911,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -3922,7 +4102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -3933,7 +4113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -3944,7 +4124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -3955,7 +4135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -3966,7 +4146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>2.8E-5</v>
       </c>
@@ -3977,7 +4157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>2.9E-5</v>
       </c>
@@ -3988,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -3999,7 +4179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -4010,7 +4190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -4021,7 +4201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -4032,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -4043,7 +4223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2.3E-5</v>
       </c>
@@ -4054,7 +4234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -4065,7 +4245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>1.8E-5</v>
       </c>
@@ -4076,7 +4256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -4087,7 +4267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>3.4E-5</v>
       </c>
@@ -4098,7 +4278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -4109,7 +4289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -4120,7 +4300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -4131,7 +4311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -4142,7 +4322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -4153,7 +4333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -4164,7 +4344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -4175,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -4186,7 +4366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -4197,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -4208,7 +4388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -4219,7 +4399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>2.8E-5</v>
       </c>
@@ -4230,7 +4410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -4241,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -4252,7 +4432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -4263,7 +4443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -4274,7 +4454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -4285,7 +4465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -4296,7 +4476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -4307,7 +4487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -4318,7 +4498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2.8E-5</v>
       </c>
@@ -4329,7 +4509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2.9E-5</v>
       </c>
@@ -4340,7 +4520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
@@ -4351,7 +4531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>3.4E-5</v>
       </c>
@@ -4362,7 +4542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>3.5999999999999899E-5</v>
       </c>
@@ -4373,7 +4553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -4384,7 +4564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -4395,7 +4575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -4406,7 +4586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -4417,7 +4597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -4428,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -4439,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
@@ -4450,7 +4630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>2.4000000000000001E-5</v>
       </c>
@@ -4461,7 +4641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -4472,7 +4652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2.5999999999999998E-5</v>
       </c>
@@ -4483,7 +4663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -4494,7 +4674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2.9E-5</v>
       </c>
@@ -4505,7 +4685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -4516,7 +4696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -4527,7 +4707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>3.4E-5</v>
       </c>
@@ -4538,7 +4718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>3.79999999999999E-5</v>
       </c>
@@ -4549,7 +4729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -4560,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -4571,7 +4751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -4582,7 +4762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -4593,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
@@ -4604,7 +4784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>3.6999999999999903E-5</v>
       </c>
@@ -4615,7 +4795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -4626,7 +4806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -4637,7 +4817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -4648,7 +4828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>4.29999999999999E-5</v>
       </c>
@@ -4659,7 +4839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -4670,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>4.0999999999999899E-5</v>
       </c>
@@ -4681,7 +4861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -4692,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -4703,7 +4883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -4714,7 +4894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -4725,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -4736,7 +4916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>4.3999999999999897E-5</v>
       </c>
@@ -4747,7 +4927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -4758,7 +4938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>4.4999999999999901E-5</v>
       </c>
@@ -4769,7 +4949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>4.1999999999999903E-5</v>
       </c>
@@ -4780,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>3.9999999999999902E-5</v>
       </c>
@@ -4791,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>3.8999999999999898E-5</v>
       </c>
@@ -4803,10 +4983,2580 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C253">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C253">
     <sortCondition descending="1" ref="C2:C253"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6701CD98-CE1D-904D-9BDD-DFB645C98211}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="5">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C12" s="5">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C19" s="5">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="5">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5">
+        <v>11</v>
+      </c>
+      <c r="E29" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="5">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C31" s="5">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C37" s="5">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C38" s="5">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C40" s="5">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5">
+        <v>14</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C41" s="5">
+        <v>10</v>
+      </c>
+      <c r="D41" s="5">
+        <v>12</v>
+      </c>
+      <c r="E41" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="5">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="5">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>9</v>
+      </c>
+      <c r="D44" s="5">
+        <v>13</v>
+      </c>
+      <c r="E44" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="C45" s="5">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9</v>
+      </c>
+      <c r="D46" s="5">
+        <v>12</v>
+      </c>
+      <c r="E46" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C47" s="5">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="5">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5">
+        <v>11</v>
+      </c>
+      <c r="E48" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="5">
+        <v>9</v>
+      </c>
+      <c r="D49" s="5">
+        <v>11</v>
+      </c>
+      <c r="E49" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="5">
+        <v>9</v>
+      </c>
+      <c r="D50" s="5">
+        <v>11</v>
+      </c>
+      <c r="E50" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C51" s="5">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12</v>
+      </c>
+      <c r="E51" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C52" s="5">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5">
+        <v>13</v>
+      </c>
+      <c r="E52" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="5">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5">
+        <v>12</v>
+      </c>
+      <c r="E53" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C54" s="5">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5">
+        <v>13</v>
+      </c>
+      <c r="E54" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="5">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5">
+        <v>11</v>
+      </c>
+      <c r="E55" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C56" s="5">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5">
+        <v>13</v>
+      </c>
+      <c r="E56" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E57" s="6"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
+    <sortCondition descending="1" ref="C2:C57"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E504AD-0782-5549-A166-1895F3BC811D}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.02</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.02</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.02</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0.02</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0.02</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.02</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>0.02</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0.02</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>0.02</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>0.02</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0.02</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1542B2C-2B37-1F4A-B338-ED4CA489787A}">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3.2999999999999901E-5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3.3999999999999898E-5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>3.4999999999999902E-5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>3.5999999999999899E-5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>3.6999999999999903E-5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>3.79999999999999E-5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>3.8999999999999898E-5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>3.9999999999999902E-5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>3.2999999999999901E-5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>3.3999999999999898E-5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>3.4999999999999902E-5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>3.5999999999999899E-5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>3.6999999999999903E-5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>3.79999999999999E-5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>3.8999999999999898E-5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>3.9999999999999902E-5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C25" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>3.2999999999999901E-5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>3.3999999999999898E-5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C28" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>3.4999999999999902E-5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>3.5999999999999899E-5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>3.6999999999999903E-5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>3.79999999999999E-5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C32" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>3.8999999999999898E-5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C33" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>3.9999999999999902E-5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C34" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>3.2999999999999901E-5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>3.3999999999999898E-5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>3.4999999999999902E-5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>3.5999999999999899E-5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>3.6999999999999903E-5</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>3.79999999999999E-5</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>3.8999999999999898E-5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>3.9999999999999902E-5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>3.2999999999999901E-5</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>3.3999999999999898E-5</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C50" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>3.4999999999999902E-5</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>3.5999999999999899E-5</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C52" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>3.6999999999999903E-5</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C53" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>3.79999999999999E-5</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C54" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>3.8999999999999898E-5</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C55" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>3.9999999999999902E-5</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>0</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/qpsk_600_a.xlsx
+++ b/qpsk_600_a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocarrillo/github/N9600A-sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09C46F-2229-314B-A5E5-D32D7329E684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CAD6B9-07BD-4A44-92A8-38F70D0C99D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="1720" windowWidth="16280" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qpsk_600_a" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="p25" sheetId="3" r:id="rId3"/>
     <sheet name="m25" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4995,8 +5008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6701CD98-CE1D-904D-9BDD-DFB645C98211}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
